--- a/docs/Team01Report-Sprint4.xlsx
+++ b/docs/Team01Report-Sprint4.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425" tabRatio="688" activeTab="6"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425" tabRatio="688" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -1209,11 +1209,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="430422000"/>
-        <c:axId val="430420040"/>
+        <c:axId val="475310416"/>
+        <c:axId val="481734352"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="430422000"/>
+        <c:axId val="475310416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1223,14 +1223,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="430420040"/>
+        <c:crossAx val="481734352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="430420040"/>
+        <c:axId val="481734352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1241,7 +1241,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="430422000"/>
+        <c:crossAx val="475310416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1340,11 +1340,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="430420824"/>
-        <c:axId val="430421608"/>
+        <c:axId val="481733960"/>
+        <c:axId val="481734744"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="430420824"/>
+        <c:axId val="481733960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1354,14 +1354,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="430421608"/>
+        <c:crossAx val="481734744"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="430421608"/>
+        <c:axId val="481734744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1372,7 +1372,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="430420824"/>
+        <c:crossAx val="481733960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1409,7 +1409,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1447,7 +1447,7 @@
         <xdr:cNvPr id="3" name="Rectangular Callout 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1522,7 +1522,7 @@
         <xdr:cNvPr id="4" name="Rectangular Callout 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1587,7 +1587,7 @@
         <xdr:cNvPr id="5" name="Rectangular Callout 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1656,7 +1656,7 @@
         <xdr:cNvPr id="6" name="Rectangular Callout 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1726,7 +1726,7 @@
         <xdr:cNvPr id="7" name="Rectangular Callout 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1795,7 +1795,7 @@
         <xdr:cNvPr id="8" name="Rectangular Callout 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1865,7 +1865,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3788,8 +3788,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="150" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView topLeftCell="A16" zoomScale="150" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4276,8 +4276,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:I5"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4286,7 +4286,7 @@
     <col min="2" max="2" width="23.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -4437,13 +4437,13 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="B8" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D8" s="18" t="s">
         <v>212</v>
@@ -4463,7 +4463,7 @@
         <v>99</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D9" s="18" t="s">
         <v>212</v>
@@ -4488,8 +4488,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C43"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="A26" activeCellId="1" sqref="A34:B34 A26:B26"/>
+    <sheetView topLeftCell="A13" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
